--- a/files/cards.xlsx
+++ b/files/cards.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/DoomPy/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azabicki/Sync/Projects/DoomPy/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014A1A7-4F10-CE46-91B7-23A9F43674E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B579C-92DE-AD48-B522-3341B6534117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="3820" windowWidth="31200" windowHeight="21640" xr2:uid="{FFCA0E03-569E-F44B-8E00-2A40D4903513}"/>
   </bookViews>
@@ -2417,7 +2417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2447,8 +2447,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3202,9 +3200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AE435C-BBFF-4D4C-B457-AFC1FAEE6491}">
   <dimension ref="A1:Y367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3313,7 +3311,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" t="s">
         <v>741</v>
       </c>
       <c r="B2" t="s">
@@ -3346,7 +3344,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" t="s">
         <v>741</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3379,7 +3377,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" t="s">
         <v>741</v>
       </c>
       <c r="B4" t="s">
@@ -3413,7 +3411,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" t="s">
         <v>741</v>
       </c>
       <c r="B5" t="s">
@@ -3446,7 +3444,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" t="s">
         <v>741</v>
       </c>
       <c r="B6" t="s">
@@ -3482,7 +3480,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" t="s">
         <v>741</v>
       </c>
       <c r="B7" t="s">
@@ -3526,7 +3524,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" t="s">
         <v>741</v>
       </c>
       <c r="B8" t="s">
@@ -3552,7 +3550,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" t="s">
         <v>741</v>
       </c>
       <c r="B9" t="s">
@@ -3578,7 +3576,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" t="s">
         <v>741</v>
       </c>
       <c r="B10" t="s">
@@ -3611,7 +3609,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" t="s">
         <v>741</v>
       </c>
       <c r="B11" t="s">
@@ -3644,7 +3642,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" t="s">
         <v>741</v>
       </c>
       <c r="B12" t="s">
@@ -3683,7 +3681,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" t="s">
         <v>741</v>
       </c>
       <c r="B13" t="s">
@@ -3716,7 +3714,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" t="s">
         <v>741</v>
       </c>
       <c r="B14" t="s">
@@ -3750,7 +3748,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" t="s">
         <v>741</v>
       </c>
       <c r="B15" t="s">
@@ -3783,7 +3781,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" t="s">
         <v>741</v>
       </c>
       <c r="B16" t="s">
@@ -3809,7 +3807,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" t="s">
         <v>741</v>
       </c>
       <c r="B17" t="s">
@@ -3835,7 +3833,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" t="s">
         <v>741</v>
       </c>
       <c r="B18" t="s">
@@ -3871,7 +3869,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" t="s">
         <v>741</v>
       </c>
       <c r="B19" t="s">
@@ -3904,7 +3902,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" t="s">
         <v>741</v>
       </c>
       <c r="B20" t="s">
@@ -3937,7 +3935,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" t="s">
         <v>741</v>
       </c>
       <c r="B21" t="s">
@@ -3970,7 +3968,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" t="s">
         <v>741</v>
       </c>
       <c r="B22" t="s">
@@ -4003,7 +4001,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" t="s">
         <v>741</v>
       </c>
       <c r="B23" t="s">
@@ -4036,7 +4034,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" t="s">
         <v>741</v>
       </c>
       <c r="B24" t="s">
@@ -4075,7 +4073,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" t="s">
         <v>741</v>
       </c>
       <c r="B25" t="s">
@@ -4108,7 +4106,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" t="s">
         <v>741</v>
       </c>
       <c r="B26" t="s">
@@ -4144,7 +4142,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" t="s">
         <v>741</v>
       </c>
       <c r="B27" t="s">
@@ -4180,7 +4178,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" t="s">
         <v>741</v>
       </c>
       <c r="B28" t="s">
@@ -4213,7 +4211,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" t="s">
         <v>741</v>
       </c>
       <c r="B29" t="s">
@@ -4249,7 +4247,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" t="s">
         <v>741</v>
       </c>
       <c r="B30" t="s">
@@ -4275,7 +4273,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" t="s">
         <v>741</v>
       </c>
       <c r="B31" t="s">
@@ -4314,7 +4312,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" t="s">
         <v>741</v>
       </c>
       <c r="B32" t="s">
@@ -4353,7 +4351,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" t="s">
         <v>741</v>
       </c>
       <c r="B33" t="s">
@@ -4386,7 +4384,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" t="s">
         <v>741</v>
       </c>
       <c r="B34" t="s">
@@ -4412,7 +4410,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" t="s">
         <v>741</v>
       </c>
       <c r="B35" t="s">
@@ -4438,7 +4436,7 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" t="s">
         <v>741</v>
       </c>
       <c r="B36" t="s">
@@ -4471,7 +4469,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" t="s">
         <v>741</v>
       </c>
       <c r="B37" t="s">
@@ -4504,7 +4502,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" t="s">
         <v>741</v>
       </c>
       <c r="B38" t="s">
@@ -4540,7 +4538,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" t="s">
         <v>741</v>
       </c>
       <c r="B39" t="s">
@@ -4573,7 +4571,7 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" t="s">
         <v>741</v>
       </c>
       <c r="B40" t="s">
@@ -4614,7 +4612,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" t="s">
         <v>741</v>
       </c>
       <c r="B41" t="s">
@@ -4655,7 +4653,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" t="s">
         <v>741</v>
       </c>
       <c r="B42" t="s">
@@ -4691,7 +4689,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" t="s">
         <v>741</v>
       </c>
       <c r="B43" t="s">
@@ -4727,7 +4725,7 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" t="s">
         <v>741</v>
       </c>
       <c r="B44" t="s">
@@ -4760,7 +4758,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" t="s">
         <v>741</v>
       </c>
       <c r="B45" t="s">
@@ -4800,7 +4798,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" t="s">
         <v>741</v>
       </c>
       <c r="B46" t="s">
@@ -4833,7 +4831,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="A47" t="s">
         <v>741</v>
       </c>
       <c r="B47" t="s">
@@ -4866,7 +4864,7 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="A48" t="s">
         <v>741</v>
       </c>
       <c r="B48" t="s">
@@ -4899,7 +4897,7 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" t="s">
         <v>741</v>
       </c>
       <c r="B49" t="s">
@@ -4932,7 +4930,7 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="A50" t="s">
         <v>741</v>
       </c>
       <c r="B50" t="s">
@@ -4979,7 +4977,7 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" t="s">
         <v>741</v>
       </c>
       <c r="B51" t="s">
@@ -5026,7 +5024,7 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="A52" t="s">
         <v>741</v>
       </c>
       <c r="B52" t="s">
@@ -5065,7 +5063,7 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" t="s">
         <v>741</v>
       </c>
       <c r="B53" t="s">
@@ -5094,7 +5092,7 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+      <c r="A54" t="s">
         <v>741</v>
       </c>
       <c r="B54" t="s">
@@ -5120,7 +5118,7 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+      <c r="A55" t="s">
         <v>741</v>
       </c>
       <c r="B55" t="s">
@@ -5153,7 +5151,7 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="A56" t="s">
         <v>741</v>
       </c>
       <c r="B56" t="s">
@@ -5189,7 +5187,7 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
+      <c r="A57" t="s">
         <v>741</v>
       </c>
       <c r="B57" t="s">
@@ -5222,7 +5220,7 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="A58" t="s">
         <v>741</v>
       </c>
       <c r="B58" t="s">
@@ -5263,7 +5261,7 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" t="s">
         <v>741</v>
       </c>
       <c r="B59" t="s">
@@ -5296,7 +5294,7 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
+      <c r="A60" t="s">
         <v>741</v>
       </c>
       <c r="B60" t="s">
@@ -5329,7 +5327,7 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
+      <c r="A61" t="s">
         <v>741</v>
       </c>
       <c r="B61" t="s">
@@ -5362,7 +5360,7 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+      <c r="A62" t="s">
         <v>741</v>
       </c>
       <c r="B62" t="s">
@@ -5393,7 +5391,7 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="26" t="s">
+      <c r="A63" t="s">
         <v>741</v>
       </c>
       <c r="B63" t="s">
@@ -5426,7 +5424,7 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A64" s="26" t="s">
+      <c r="A64" t="s">
         <v>741</v>
       </c>
       <c r="B64" t="s">
@@ -5459,7 +5457,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A65" s="26" t="s">
+      <c r="A65" t="s">
         <v>741</v>
       </c>
       <c r="B65" t="s">
@@ -5501,7 +5499,7 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+      <c r="A66" t="s">
         <v>741</v>
       </c>
       <c r="B66" t="s">
@@ -5539,7 +5537,7 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
+      <c r="A67" t="s">
         <v>741</v>
       </c>
       <c r="B67" t="s">
@@ -5572,7 +5570,7 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
+      <c r="A68" t="s">
         <v>741</v>
       </c>
       <c r="B68" t="s">
@@ -5601,7 +5599,7 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" s="26" t="s">
+      <c r="A69" t="s">
         <v>741</v>
       </c>
       <c r="B69" t="s">
@@ -5630,7 +5628,7 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
+      <c r="A70" t="s">
         <v>741</v>
       </c>
       <c r="B70" t="s">
@@ -5663,7 +5661,7 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A71" s="26" t="s">
+      <c r="A71" t="s">
         <v>741</v>
       </c>
       <c r="B71" t="s">
@@ -5695,7 +5693,7 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" s="26" t="s">
+      <c r="A72" t="s">
         <v>741</v>
       </c>
       <c r="B72" t="s">
@@ -5727,7 +5725,7 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
+      <c r="A73" t="s">
         <v>741</v>
       </c>
       <c r="B73" t="s">
@@ -5762,7 +5760,7 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A74" s="26" t="s">
+      <c r="A74" t="s">
         <v>741</v>
       </c>
       <c r="B74" t="s">
@@ -5795,7 +5793,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A75" s="26" t="s">
+      <c r="A75" t="s">
         <v>741</v>
       </c>
       <c r="B75" t="s">
@@ -5828,7 +5826,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
+      <c r="A76" t="s">
         <v>741</v>
       </c>
       <c r="B76" t="s">
@@ -5862,7 +5860,7 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" s="26" t="s">
+      <c r="A77" t="s">
         <v>741</v>
       </c>
       <c r="B77" t="s">
@@ -5888,7 +5886,7 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" s="26" t="s">
+      <c r="A78" t="s">
         <v>741</v>
       </c>
       <c r="B78" t="s">
@@ -5914,7 +5912,7 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A79" s="26" t="s">
+      <c r="A79" t="s">
         <v>741</v>
       </c>
       <c r="B79" t="s">
@@ -5940,7 +5938,7 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A80" s="26" t="s">
+      <c r="A80" t="s">
         <v>741</v>
       </c>
       <c r="B80" t="s">
@@ -5973,7 +5971,7 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A81" s="26" t="s">
+      <c r="A81" t="s">
         <v>741</v>
       </c>
       <c r="B81" t="s">
@@ -6006,7 +6004,7 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A82" s="26" t="s">
+      <c r="A82" t="s">
         <v>741</v>
       </c>
       <c r="B82" t="s">
@@ -6039,7 +6037,7 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" s="26" t="s">
+      <c r="A83" t="s">
         <v>741</v>
       </c>
       <c r="B83" t="s">
@@ -6072,7 +6070,7 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A84" s="26" t="s">
+      <c r="A84" t="s">
         <v>741</v>
       </c>
       <c r="B84" t="s">
@@ -6103,7 +6101,7 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A85" s="26" t="s">
+      <c r="A85" t="s">
         <v>741</v>
       </c>
       <c r="B85" t="s">
@@ -6142,7 +6140,7 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A86" s="26" t="s">
+      <c r="A86" t="s">
         <v>741</v>
       </c>
       <c r="B86" t="s">
@@ -6175,7 +6173,7 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A87" s="26" t="s">
+      <c r="A87" t="s">
         <v>741</v>
       </c>
       <c r="B87" t="s">
@@ -6201,7 +6199,7 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A88" s="26" t="s">
+      <c r="A88" t="s">
         <v>741</v>
       </c>
       <c r="B88" t="s">
@@ -6227,7 +6225,7 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A89" s="26" t="s">
+      <c r="A89" t="s">
         <v>741</v>
       </c>
       <c r="B89" t="s">
@@ -6263,7 +6261,7 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
+      <c r="A90" t="s">
         <v>741</v>
       </c>
       <c r="B90" t="s">
@@ -6289,7 +6287,7 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
+      <c r="A91" t="s">
         <v>741</v>
       </c>
       <c r="B91" t="s">
@@ -6328,7 +6326,7 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
+      <c r="A92" t="s">
         <v>741</v>
       </c>
       <c r="B92" t="s">
@@ -6361,7 +6359,7 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
+      <c r="A93" t="s">
         <v>741</v>
       </c>
       <c r="B93" t="s">
@@ -6394,7 +6392,7 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
+      <c r="A94" t="s">
         <v>741</v>
       </c>
       <c r="B94" t="s">
@@ -6420,7 +6418,7 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
+      <c r="A95" t="s">
         <v>741</v>
       </c>
       <c r="B95" t="s">
@@ -6453,7 +6451,7 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+      <c r="A96" t="s">
         <v>741</v>
       </c>
       <c r="B96" t="s">
@@ -6491,7 +6489,7 @@
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
+      <c r="A97" t="s">
         <v>741</v>
       </c>
       <c r="B97" t="s">
@@ -6520,7 +6518,7 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A98" s="26" t="s">
+      <c r="A98" t="s">
         <v>741</v>
       </c>
       <c r="B98" t="s">
@@ -6551,7 +6549,7 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A99" s="26" t="s">
+      <c r="A99" t="s">
         <v>741</v>
       </c>
       <c r="B99" t="s">
@@ -6587,7 +6585,7 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A100" s="26" t="s">
+      <c r="A100" t="s">
         <v>741</v>
       </c>
       <c r="B100" t="s">
@@ -6623,7 +6621,7 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
+      <c r="A101" t="s">
         <v>741</v>
       </c>
       <c r="B101" t="s">
@@ -6656,7 +6654,7 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A102" s="26" t="s">
+      <c r="A102" t="s">
         <v>741</v>
       </c>
       <c r="B102" t="s">
@@ -6687,7 +6685,7 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A103" s="26" t="s">
+      <c r="A103" t="s">
         <v>741</v>
       </c>
       <c r="B103" t="s">
@@ -6720,7 +6718,7 @@
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A104" s="26" t="s">
+      <c r="A104" t="s">
         <v>741</v>
       </c>
       <c r="B104" t="s">
@@ -6764,7 +6762,7 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A105" s="26" t="s">
+      <c r="A105" t="s">
         <v>741</v>
       </c>
       <c r="B105" t="s">
@@ -6797,7 +6795,7 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A106" s="26" t="s">
+      <c r="A106" t="s">
         <v>741</v>
       </c>
       <c r="B106" t="s">
@@ -6836,7 +6834,7 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A107" s="26" t="s">
+      <c r="A107" t="s">
         <v>741</v>
       </c>
       <c r="B107" t="s">
@@ -6869,7 +6867,7 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
+      <c r="A108" t="s">
         <v>741</v>
       </c>
       <c r="B108" t="s">
@@ -6902,7 +6900,7 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A109" s="26" t="s">
+      <c r="A109" t="s">
         <v>741</v>
       </c>
       <c r="B109" t="s">
@@ -6935,7 +6933,7 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A110" s="26" t="s">
+      <c r="A110" t="s">
         <v>741</v>
       </c>
       <c r="B110" t="s">
@@ -6968,7 +6966,7 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A111" s="26" t="s">
+      <c r="A111" t="s">
         <v>741</v>
       </c>
       <c r="B111" t="s">
@@ -7007,7 +7005,7 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
+      <c r="A112" t="s">
         <v>741</v>
       </c>
       <c r="B112" t="s">
@@ -7043,7 +7041,7 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A113" s="26" t="s">
+      <c r="A113" t="s">
         <v>741</v>
       </c>
       <c r="B113" t="s">
@@ -7079,7 +7077,7 @@
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A114" s="26" t="s">
+      <c r="A114" t="s">
         <v>741</v>
       </c>
       <c r="B114" t="s">
@@ -7113,7 +7111,7 @@
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A115" s="26" t="s">
+      <c r="A115" t="s">
         <v>741</v>
       </c>
       <c r="B115" t="s">
@@ -7152,7 +7150,7 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A116" s="26" t="s">
+      <c r="A116" t="s">
         <v>741</v>
       </c>
       <c r="B116" t="s">
@@ -7185,7 +7183,7 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A117" s="26" t="s">
+      <c r="A117" t="s">
         <v>741</v>
       </c>
       <c r="B117" t="s">
@@ -7218,7 +7216,7 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A118" s="26" t="s">
+      <c r="A118" t="s">
         <v>741</v>
       </c>
       <c r="B118" t="s">
@@ -7251,7 +7249,7 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
+      <c r="A119" t="s">
         <v>741</v>
       </c>
       <c r="B119" t="s">
@@ -7284,7 +7282,7 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A120" s="26" t="s">
+      <c r="A120" t="s">
         <v>741</v>
       </c>
       <c r="B120" t="s">
@@ -7317,7 +7315,7 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A121" s="26" t="s">
+      <c r="A121" t="s">
         <v>741</v>
       </c>
       <c r="B121" t="s">
@@ -7348,7 +7346,7 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A122" s="26" t="s">
+      <c r="A122" t="s">
         <v>741</v>
       </c>
       <c r="B122" t="s">
@@ -7381,7 +7379,7 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
+      <c r="A123" t="s">
         <v>741</v>
       </c>
       <c r="B123" t="s">
@@ -7414,7 +7412,7 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A124" s="26" t="s">
+      <c r="A124" t="s">
         <v>741</v>
       </c>
       <c r="B124" t="s">
@@ -7450,7 +7448,7 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A125" s="26" t="s">
+      <c r="A125" t="s">
         <v>741</v>
       </c>
       <c r="B125" t="s">
@@ -7486,7 +7484,7 @@
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
+      <c r="A126" t="s">
         <v>741</v>
       </c>
       <c r="B126" t="s">
@@ -7519,7 +7517,7 @@
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A127" s="26" t="s">
+      <c r="A127" t="s">
         <v>741</v>
       </c>
       <c r="B127" t="s">
@@ -7555,7 +7553,7 @@
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A128" s="26" t="s">
+      <c r="A128" t="s">
         <v>741</v>
       </c>
       <c r="B128" t="s">
@@ -7590,7 +7588,7 @@
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
+      <c r="A129" t="s">
         <v>741</v>
       </c>
       <c r="B129" t="s">
@@ -7616,7 +7614,7 @@
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A130" s="26" t="s">
+      <c r="A130" t="s">
         <v>741</v>
       </c>
       <c r="B130" t="s">
@@ -7642,7 +7640,7 @@
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A131" s="26" t="s">
+      <c r="A131" t="s">
         <v>741</v>
       </c>
       <c r="B131" t="s">
@@ -7675,7 +7673,7 @@
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A132" s="26" t="s">
+      <c r="A132" t="s">
         <v>741</v>
       </c>
       <c r="B132" t="s">
@@ -7719,7 +7717,7 @@
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A133" s="26" t="s">
+      <c r="A133" t="s">
         <v>741</v>
       </c>
       <c r="B133" t="s">
@@ -7763,7 +7761,7 @@
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A134" s="26" t="s">
+      <c r="A134" t="s">
         <v>741</v>
       </c>
       <c r="B134" t="s">
@@ -7799,7 +7797,7 @@
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A135" s="26" t="s">
+      <c r="A135" t="s">
         <v>741</v>
       </c>
       <c r="B135" t="s">
@@ -7832,7 +7830,7 @@
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A136" s="26" t="s">
+      <c r="A136" t="s">
         <v>741</v>
       </c>
       <c r="B136" t="s">
@@ -7865,7 +7863,7 @@
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A137" s="26" t="s">
+      <c r="A137" t="s">
         <v>741</v>
       </c>
       <c r="B137" t="s">
@@ -7898,7 +7896,7 @@
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A138" s="26" t="s">
+      <c r="A138" t="s">
         <v>741</v>
       </c>
       <c r="B138" t="s">
@@ -7931,7 +7929,7 @@
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A139" s="26" t="s">
+      <c r="A139" t="s">
         <v>741</v>
       </c>
       <c r="B139" t="s">
@@ -7970,7 +7968,7 @@
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" s="26" t="s">
+      <c r="A140" t="s">
         <v>741</v>
       </c>
       <c r="B140" t="s">
@@ -8004,7 +8002,7 @@
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A141" s="26" t="s">
+      <c r="A141" t="s">
         <v>741</v>
       </c>
       <c r="B141" t="s">
@@ -8037,7 +8035,7 @@
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A142" s="26" t="s">
+      <c r="A142" t="s">
         <v>741</v>
       </c>
       <c r="B142" t="s">
@@ -8073,7 +8071,7 @@
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A143" s="26" t="s">
+      <c r="A143" t="s">
         <v>741</v>
       </c>
       <c r="B143" t="s">
@@ -8109,7 +8107,7 @@
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A144" s="26" t="s">
+      <c r="A144" t="s">
         <v>741</v>
       </c>
       <c r="B144" t="s">
@@ -8143,7 +8141,7 @@
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A145" s="26" t="s">
+      <c r="A145" t="s">
         <v>741</v>
       </c>
       <c r="B145" t="s">
@@ -8176,7 +8174,7 @@
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A146" s="26" t="s">
+      <c r="A146" t="s">
         <v>741</v>
       </c>
       <c r="B146" t="s">
@@ -8209,7 +8207,7 @@
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A147" s="26" t="s">
+      <c r="A147" t="s">
         <v>741</v>
       </c>
       <c r="B147" t="s">
@@ -8242,7 +8240,7 @@
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A148" s="26" t="s">
+      <c r="A148" t="s">
         <v>741</v>
       </c>
       <c r="B148" t="s">
@@ -8281,7 +8279,7 @@
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A149" s="26" t="s">
+      <c r="A149" t="s">
         <v>741</v>
       </c>
       <c r="B149" t="s">
@@ -8317,7 +8315,7 @@
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A150" s="26" t="s">
+      <c r="A150" t="s">
         <v>741</v>
       </c>
       <c r="B150" t="s">
@@ -8343,7 +8341,7 @@
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A151" s="26" t="s">
+      <c r="A151" t="s">
         <v>741</v>
       </c>
       <c r="B151" t="s">
@@ -8377,7 +8375,7 @@
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A152" s="26" t="s">
+      <c r="A152" t="s">
         <v>741</v>
       </c>
       <c r="B152" t="s">
@@ -8410,7 +8408,7 @@
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A153" s="26" t="s">
+      <c r="A153" t="s">
         <v>741</v>
       </c>
       <c r="B153" t="s">
@@ -8453,7 +8451,7 @@
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A154" s="26" t="s">
+      <c r="A154" t="s">
         <v>741</v>
       </c>
       <c r="B154" t="s">
@@ -8495,7 +8493,7 @@
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A155" s="26" t="s">
+      <c r="A155" t="s">
         <v>741</v>
       </c>
       <c r="B155" t="s">
@@ -8528,7 +8526,7 @@
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A156" s="26" t="s">
+      <c r="A156" t="s">
         <v>741</v>
       </c>
       <c r="B156" t="s">
@@ -8561,7 +8559,7 @@
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A157" s="26" t="s">
+      <c r="A157" t="s">
         <v>741</v>
       </c>
       <c r="B157" t="s">
@@ -8594,7 +8592,7 @@
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A158" s="26" t="s">
+      <c r="A158" t="s">
         <v>741</v>
       </c>
       <c r="B158" t="s">
@@ -8634,7 +8632,7 @@
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A159" s="26" t="s">
+      <c r="A159" t="s">
         <v>741</v>
       </c>
       <c r="B159" t="s">
@@ -8667,7 +8665,7 @@
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A160" s="26" t="s">
+      <c r="A160" t="s">
         <v>741</v>
       </c>
       <c r="B160" t="s">
@@ -8700,7 +8698,7 @@
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A161" s="26" t="s">
+      <c r="A161" t="s">
         <v>741</v>
       </c>
       <c r="B161" t="s">
@@ -8739,7 +8737,7 @@
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A162" s="26" t="s">
+      <c r="A162" t="s">
         <v>741</v>
       </c>
       <c r="B162" t="s">
@@ -8775,7 +8773,7 @@
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A163" s="26" t="s">
+      <c r="A163" t="s">
         <v>741</v>
       </c>
       <c r="B163" t="s">
@@ -8811,7 +8809,7 @@
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A164" s="26" t="s">
+      <c r="A164" t="s">
         <v>741</v>
       </c>
       <c r="B164" t="s">
@@ -8847,7 +8845,7 @@
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A165" s="26" t="s">
+      <c r="A165" t="s">
         <v>741</v>
       </c>
       <c r="B165" t="s">
@@ -8883,7 +8881,7 @@
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A166" s="26" t="s">
+      <c r="A166" t="s">
         <v>741</v>
       </c>
       <c r="B166" t="s">
@@ -8919,7 +8917,7 @@
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A167" s="26" t="s">
+      <c r="A167" t="s">
         <v>741</v>
       </c>
       <c r="B167" t="s">
@@ -8955,7 +8953,7 @@
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A168" s="26" t="s">
+      <c r="A168" t="s">
         <v>741</v>
       </c>
       <c r="B168" t="s">
@@ -8991,7 +8989,7 @@
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A169" s="26" t="s">
+      <c r="A169" t="s">
         <v>741</v>
       </c>
       <c r="B169" t="s">
@@ -9027,7 +9025,7 @@
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A170" s="26" t="s">
+      <c r="A170" t="s">
         <v>741</v>
       </c>
       <c r="B170" t="s">
@@ -9063,7 +9061,7 @@
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A171" s="26" t="s">
+      <c r="A171" t="s">
         <v>741</v>
       </c>
       <c r="B171" t="s">
@@ -9099,7 +9097,7 @@
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A172" s="26" t="s">
+      <c r="A172" t="s">
         <v>741</v>
       </c>
       <c r="B172" t="s">
@@ -9135,7 +9133,7 @@
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A173" s="26" t="s">
+      <c r="A173" t="s">
         <v>741</v>
       </c>
       <c r="B173" t="s">
@@ -9171,7 +9169,7 @@
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="26" t="s">
+      <c r="A174" t="s">
         <v>741</v>
       </c>
       <c r="B174" t="s">
@@ -9204,7 +9202,7 @@
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" s="26" t="s">
+      <c r="A175" t="s">
         <v>741</v>
       </c>
       <c r="B175" t="s">
@@ -9237,7 +9235,7 @@
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A176" s="26" t="s">
+      <c r="A176" t="s">
         <v>741</v>
       </c>
       <c r="B176" t="s">
@@ -9263,7 +9261,7 @@
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A177" s="26" t="s">
+      <c r="A177" t="s">
         <v>741</v>
       </c>
       <c r="B177" t="s">
@@ -9307,7 +9305,7 @@
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A178" s="26" t="s">
+      <c r="A178" t="s">
         <v>741</v>
       </c>
       <c r="B178" t="s">
@@ -9340,7 +9338,7 @@
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A179" s="26" t="s">
+      <c r="A179" t="s">
         <v>741</v>
       </c>
       <c r="B179" t="s">
@@ -9379,7 +9377,7 @@
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
+      <c r="A180" t="s">
         <v>741</v>
       </c>
       <c r="B180" t="s">
@@ -9418,7 +9416,7 @@
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A181" s="26" t="s">
+      <c r="A181" t="s">
         <v>741</v>
       </c>
       <c r="B181" t="s">
@@ -9451,7 +9449,7 @@
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
+      <c r="A182" t="s">
         <v>741</v>
       </c>
       <c r="B182" t="s">
@@ -9484,7 +9482,7 @@
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A183" s="26" t="s">
+      <c r="A183" t="s">
         <v>741</v>
       </c>
       <c r="B183" t="s">
@@ -9517,7 +9515,7 @@
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A184" s="26" t="s">
+      <c r="A184" t="s">
         <v>741</v>
       </c>
       <c r="B184" t="s">
@@ -9557,7 +9555,7 @@
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A185" s="26" t="s">
+      <c r="A185" t="s">
         <v>741</v>
       </c>
       <c r="B185" t="s">
@@ -9597,7 +9595,7 @@
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A186" s="26" t="s">
+      <c r="A186" t="s">
         <v>741</v>
       </c>
       <c r="B186" t="s">
@@ -9634,7 +9632,7 @@
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A187" s="26" t="s">
+      <c r="A187" t="s">
         <v>741</v>
       </c>
       <c r="B187" t="s">
@@ -9667,7 +9665,7 @@
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
+      <c r="A188" t="s">
         <v>741</v>
       </c>
       <c r="B188" t="s">
@@ -9703,7 +9701,7 @@
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
+      <c r="A189" t="s">
         <v>741</v>
       </c>
       <c r="B189" t="s">
@@ -9729,7 +9727,7 @@
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A190" s="26" t="s">
+      <c r="A190" t="s">
         <v>741</v>
       </c>
       <c r="B190" t="s">
@@ -9762,7 +9760,7 @@
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
+      <c r="A191" t="s">
         <v>741</v>
       </c>
       <c r="B191" t="s">
@@ -9796,7 +9794,7 @@
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A192" s="26" t="s">
+      <c r="A192" t="s">
         <v>741</v>
       </c>
       <c r="B192" t="s">
@@ -9832,7 +9830,7 @@
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A193" s="26" t="s">
+      <c r="A193" t="s">
         <v>741</v>
       </c>
       <c r="B193" t="s">
@@ -9871,7 +9869,7 @@
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
+      <c r="A194" t="s">
         <v>741</v>
       </c>
       <c r="B194" t="s">
@@ -9904,7 +9902,7 @@
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A195" s="26" t="s">
+      <c r="A195" t="s">
         <v>741</v>
       </c>
       <c r="B195" t="s">
@@ -9937,7 +9935,7 @@
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A196" s="26" t="s">
+      <c r="A196" t="s">
         <v>741</v>
       </c>
       <c r="B196" t="s">
@@ -9978,7 +9976,7 @@
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A197" s="26" t="s">
+      <c r="A197" t="s">
         <v>741</v>
       </c>
       <c r="B197" t="s">
@@ -10016,7 +10014,7 @@
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A198" s="26" t="s">
+      <c r="A198" t="s">
         <v>741</v>
       </c>
       <c r="B198" t="s">
@@ -10063,7 +10061,7 @@
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A199" s="26" t="s">
+      <c r="A199" t="s">
         <v>741</v>
       </c>
       <c r="B199" t="s">
@@ -10094,7 +10092,7 @@
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A200" s="26" t="s">
+      <c r="A200" t="s">
         <v>741</v>
       </c>
       <c r="B200" t="s">
@@ -10125,7 +10123,7 @@
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A201" s="26" t="s">
+      <c r="A201" t="s">
         <v>741</v>
       </c>
       <c r="B201" t="s">
@@ -10165,7 +10163,7 @@
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A202" s="26" t="s">
+      <c r="A202" t="s">
         <v>741</v>
       </c>
       <c r="B202" t="s">
@@ -10205,7 +10203,7 @@
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A203" s="26" t="s">
+      <c r="A203" t="s">
         <v>741</v>
       </c>
       <c r="B203" t="s">
@@ -10231,7 +10229,7 @@
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A204" s="26" t="s">
+      <c r="A204" t="s">
         <v>741</v>
       </c>
       <c r="B204" t="s">
@@ -10268,7 +10266,7 @@
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A205" s="26" t="s">
+      <c r="A205" t="s">
         <v>741</v>
       </c>
       <c r="B205" t="s">
@@ -10306,7 +10304,7 @@
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A206" s="26" t="s">
+      <c r="A206" t="s">
         <v>741</v>
       </c>
       <c r="B206" t="s">
@@ -10332,7 +10330,7 @@
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A207" s="26" t="s">
+      <c r="A207" t="s">
         <v>741</v>
       </c>
       <c r="B207" t="s">
@@ -10365,7 +10363,7 @@
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A208" s="26" t="s">
+      <c r="A208" t="s">
         <v>741</v>
       </c>
       <c r="B208" t="s">
@@ -10398,7 +10396,7 @@
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A209" s="26" t="s">
+      <c r="A209" t="s">
         <v>741</v>
       </c>
       <c r="B209" t="s">
@@ -10431,7 +10429,7 @@
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A210" s="26" t="s">
+      <c r="A210" t="s">
         <v>741</v>
       </c>
       <c r="B210" t="s">
@@ -10469,7 +10467,7 @@
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A211" s="26" t="s">
+      <c r="A211" t="s">
         <v>741</v>
       </c>
       <c r="B211" t="s">
@@ -10508,7 +10506,7 @@
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A212" s="26" t="s">
+      <c r="A212" t="s">
         <v>741</v>
       </c>
       <c r="B212" t="s">
@@ -10541,7 +10539,7 @@
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A213" s="26" t="s">
+      <c r="A213" t="s">
         <v>741</v>
       </c>
       <c r="B213" t="s">
@@ -10610,7 +10608,7 @@
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A214" s="26" t="s">
+      <c r="A214" t="s">
         <v>741</v>
       </c>
       <c r="B214" t="s">
@@ -10644,7 +10642,7 @@
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A215" s="26" t="s">
+      <c r="A215" t="s">
         <v>741</v>
       </c>
       <c r="B215" t="s">
@@ -10670,7 +10668,7 @@
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A216" s="26" t="s">
+      <c r="A216" t="s">
         <v>741</v>
       </c>
       <c r="B216" t="s">
@@ -10696,7 +10694,7 @@
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A217" s="26" t="s">
+      <c r="A217" t="s">
         <v>741</v>
       </c>
       <c r="B217" t="s">
@@ -10732,7 +10730,7 @@
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A218" s="26" t="s">
+      <c r="A218" t="s">
         <v>741</v>
       </c>
       <c r="B218" t="s">
@@ -10771,7 +10769,7 @@
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A219" s="26" t="s">
+      <c r="A219" t="s">
         <v>741</v>
       </c>
       <c r="B219" t="s">
@@ -10810,7 +10808,7 @@
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A220" s="26" t="s">
+      <c r="A220" t="s">
         <v>741</v>
       </c>
       <c r="B220" t="s">
@@ -10843,7 +10841,7 @@
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A221" s="26" t="s">
+      <c r="A221" t="s">
         <v>741</v>
       </c>
       <c r="B221" t="s">
@@ -10876,7 +10874,7 @@
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A222" s="26" t="s">
+      <c r="A222" t="s">
         <v>741</v>
       </c>
       <c r="B222" t="s">
@@ -10912,7 +10910,7 @@
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A223" s="26" t="s">
+      <c r="A223" t="s">
         <v>741</v>
       </c>
       <c r="B223" t="s">
@@ -10945,7 +10943,7 @@
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A224" s="26" t="s">
+      <c r="A224" t="s">
         <v>741</v>
       </c>
       <c r="B224" t="s">
@@ -10978,7 +10976,7 @@
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A225" s="26" t="s">
+      <c r="A225" t="s">
         <v>741</v>
       </c>
       <c r="B225" t="s">
@@ -11011,7 +11009,7 @@
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A226" s="26" t="s">
+      <c r="A226" t="s">
         <v>741</v>
       </c>
       <c r="B226" t="s">
@@ -11044,7 +11042,7 @@
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A227" s="26" t="s">
+      <c r="A227" t="s">
         <v>741</v>
       </c>
       <c r="B227" t="s">
@@ -11077,7 +11075,7 @@
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A228" s="26" t="s">
+      <c r="A228" t="s">
         <v>741</v>
       </c>
       <c r="B228" t="s">
@@ -11110,7 +11108,7 @@
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A229" s="26" t="s">
+      <c r="A229" t="s">
         <v>741</v>
       </c>
       <c r="B229" t="s">
@@ -11143,7 +11141,7 @@
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A230" s="26" t="s">
+      <c r="A230" t="s">
         <v>741</v>
       </c>
       <c r="B230" t="s">
@@ -11179,7 +11177,7 @@
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A231" s="26" t="s">
+      <c r="A231" t="s">
         <v>741</v>
       </c>
       <c r="B231" t="s">
@@ -11212,7 +11210,7 @@
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A232" s="26" t="s">
+      <c r="A232" t="s">
         <v>741</v>
       </c>
       <c r="B232" t="s">
@@ -11245,7 +11243,7 @@
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A233" s="26" t="s">
+      <c r="A233" t="s">
         <v>741</v>
       </c>
       <c r="B233" t="s">
@@ -11278,7 +11276,7 @@
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A234" s="26" t="s">
+      <c r="A234" t="s">
         <v>741</v>
       </c>
       <c r="B234" t="s">
@@ -11314,7 +11312,7 @@
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A235" s="26" t="s">
+      <c r="A235" t="s">
         <v>741</v>
       </c>
       <c r="B235" t="s">
@@ -11347,7 +11345,7 @@
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A236" s="26" t="s">
+      <c r="A236" t="s">
         <v>741</v>
       </c>
       <c r="B236" t="s">
@@ -11373,7 +11371,7 @@
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A237" s="26" t="s">
+      <c r="A237" t="s">
         <v>741</v>
       </c>
       <c r="B237" t="s">
@@ -11412,7 +11410,7 @@
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A238" s="26" t="s">
+      <c r="A238" t="s">
         <v>741</v>
       </c>
       <c r="B238" t="s">
@@ -11445,7 +11443,7 @@
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A239" s="26" t="s">
+      <c r="A239" t="s">
         <v>741</v>
       </c>
       <c r="B239" t="s">
@@ -11471,7 +11469,7 @@
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A240" s="26" t="s">
+      <c r="A240" t="s">
         <v>741</v>
       </c>
       <c r="B240" t="s">
@@ -11497,7 +11495,7 @@
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A241" s="26" t="s">
+      <c r="A241" t="s">
         <v>741</v>
       </c>
       <c r="B241" t="s">
@@ -11527,7 +11525,7 @@
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A242" s="26" t="s">
+      <c r="A242" t="s">
         <v>741</v>
       </c>
       <c r="B242" t="s">
@@ -11563,7 +11561,7 @@
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A243" s="26" t="s">
+      <c r="A243" t="s">
         <v>741</v>
       </c>
       <c r="B243" t="s">
@@ -11599,7 +11597,7 @@
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A244" s="26" t="s">
+      <c r="A244" t="s">
         <v>741</v>
       </c>
       <c r="B244" t="s">
@@ -11632,7 +11630,7 @@
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A245" s="26" t="s">
+      <c r="A245" t="s">
         <v>741</v>
       </c>
       <c r="B245" t="s">
@@ -11665,7 +11663,7 @@
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A246" s="26" t="s">
+      <c r="A246" t="s">
         <v>741</v>
       </c>
       <c r="B246" t="s">
@@ -11691,7 +11689,7 @@
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A247" s="26" t="s">
+      <c r="A247" t="s">
         <v>741</v>
       </c>
       <c r="B247" t="s">
@@ -11720,7 +11718,7 @@
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A248" s="26" t="s">
+      <c r="A248" t="s">
         <v>741</v>
       </c>
       <c r="B248" t="s">
@@ -11759,7 +11757,7 @@
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A249" s="26" t="s">
+      <c r="A249" t="s">
         <v>741</v>
       </c>
       <c r="B249" t="s">
@@ -11795,7 +11793,7 @@
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A250" s="26" t="s">
+      <c r="A250" t="s">
         <v>741</v>
       </c>
       <c r="B250" t="s">
@@ -11829,7 +11827,7 @@
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A251" s="26" t="s">
+      <c r="A251" t="s">
         <v>741</v>
       </c>
       <c r="B251" t="s">
@@ -11862,7 +11860,7 @@
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A252" s="26" t="s">
+      <c r="A252" t="s">
         <v>741</v>
       </c>
       <c r="B252" t="s">
@@ -11893,7 +11891,7 @@
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A253" s="26" t="s">
+      <c r="A253" t="s">
         <v>741</v>
       </c>
       <c r="B253" t="s">
@@ -11924,7 +11922,7 @@
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A254" s="26" t="s">
+      <c r="A254" t="s">
         <v>741</v>
       </c>
       <c r="B254" t="s">
@@ -11957,7 +11955,7 @@
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A255" s="26" t="s">
+      <c r="A255" t="s">
         <v>741</v>
       </c>
       <c r="B255" t="s">
@@ -11983,7 +11981,7 @@
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A256" s="26" t="s">
+      <c r="A256" t="s">
         <v>741</v>
       </c>
       <c r="B256" t="s">
@@ -12016,7 +12014,7 @@
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A257" s="26" t="s">
+      <c r="A257" t="s">
         <v>741</v>
       </c>
       <c r="B257" t="s">
@@ -12049,7 +12047,7 @@
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A258" s="26" t="s">
+      <c r="A258" t="s">
         <v>741</v>
       </c>
       <c r="B258" t="s">
@@ -12091,7 +12089,7 @@
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A259" s="26" t="s">
+      <c r="A259" t="s">
         <v>741</v>
       </c>
       <c r="B259" t="s">
@@ -12133,7 +12131,7 @@
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A260" s="26" t="s">
+      <c r="A260" t="s">
         <v>741</v>
       </c>
       <c r="B260" t="s">
@@ -12172,7 +12170,7 @@
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A261" s="26" t="s">
+      <c r="A261" t="s">
         <v>741</v>
       </c>
       <c r="B261" t="s">
@@ -12205,7 +12203,7 @@
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A262" s="26" t="s">
+      <c r="A262" t="s">
         <v>741</v>
       </c>
       <c r="B262" t="s">
@@ -12241,7 +12239,7 @@
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A263" s="26" t="s">
+      <c r="A263" t="s">
         <v>741</v>
       </c>
       <c r="B263" t="s">
@@ -12274,7 +12272,7 @@
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A264" s="26" t="s">
+      <c r="A264" t="s">
         <v>741</v>
       </c>
       <c r="B264" t="s">
@@ -12308,7 +12306,7 @@
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A265" s="26" t="s">
+      <c r="A265" t="s">
         <v>741</v>
       </c>
       <c r="B265" t="s">
@@ -12341,7 +12339,7 @@
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A266" s="26" t="s">
+      <c r="A266" t="s">
         <v>741</v>
       </c>
       <c r="B266" t="s">
@@ -12374,7 +12372,7 @@
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A267" s="26" t="s">
+      <c r="A267" t="s">
         <v>741</v>
       </c>
       <c r="B267" t="s">
@@ -12405,7 +12403,7 @@
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A268" s="26" t="s">
+      <c r="A268" t="s">
         <v>741</v>
       </c>
       <c r="B268" t="s">
@@ -12438,7 +12436,7 @@
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A269" s="26" t="s">
+      <c r="A269" t="s">
         <v>741</v>
       </c>
       <c r="B269" t="s">
@@ -12471,7 +12469,7 @@
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A270" s="26" t="s">
+      <c r="A270" t="s">
         <v>741</v>
       </c>
       <c r="B270" t="s">
@@ -12504,7 +12502,7 @@
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A271" s="26" t="s">
+      <c r="A271" t="s">
         <v>741</v>
       </c>
       <c r="B271" t="s">
@@ -12537,7 +12535,7 @@
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A272" s="26" t="s">
+      <c r="A272" t="s">
         <v>741</v>
       </c>
       <c r="B272" t="s">
@@ -12570,7 +12568,7 @@
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A273" s="26" t="s">
+      <c r="A273" t="s">
         <v>741</v>
       </c>
       <c r="B273" t="s">
@@ -12603,7 +12601,7 @@
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A274" s="26" t="s">
+      <c r="A274" t="s">
         <v>741</v>
       </c>
       <c r="B274" t="s">
@@ -12636,7 +12634,7 @@
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A275" s="26" t="s">
+      <c r="A275" t="s">
         <v>741</v>
       </c>
       <c r="B275" t="s">
@@ -12682,7 +12680,7 @@
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A276" s="26" t="s">
+      <c r="A276" t="s">
         <v>741</v>
       </c>
       <c r="B276" t="s">
@@ -12711,7 +12709,7 @@
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A277" s="26" t="s">
+      <c r="A277" t="s">
         <v>741</v>
       </c>
       <c r="B277" t="s">
@@ -12740,7 +12738,7 @@
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A278" s="26" t="s">
+      <c r="A278" t="s">
         <v>741</v>
       </c>
       <c r="B278" t="s">
@@ -12773,7 +12771,7 @@
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A279" s="26" t="s">
+      <c r="A279" t="s">
         <v>741</v>
       </c>
       <c r="B279" t="s">
@@ -12809,7 +12807,7 @@
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A280" s="26" t="s">
+      <c r="A280" t="s">
         <v>741</v>
       </c>
       <c r="B280" t="s">
@@ -12845,7 +12843,7 @@
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A281" s="26" t="s">
+      <c r="A281" t="s">
         <v>741</v>
       </c>
       <c r="B281" t="s">
@@ -12886,7 +12884,7 @@
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A282" s="26" t="s">
+      <c r="A282" t="s">
         <v>741</v>
       </c>
       <c r="B282" t="s">
@@ -12920,7 +12918,7 @@
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A283" s="26" t="s">
+      <c r="A283" t="s">
         <v>741</v>
       </c>
       <c r="B283" t="s">
@@ -12953,7 +12951,7 @@
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A284" s="26" t="s">
+      <c r="A284" t="s">
         <v>741</v>
       </c>
       <c r="B284" t="s">
@@ -12997,7 +12995,7 @@
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A285" s="26" t="s">
+      <c r="A285" t="s">
         <v>741</v>
       </c>
       <c r="B285" t="s">
@@ -13030,7 +13028,7 @@
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A286" s="26" t="s">
+      <c r="A286" t="s">
         <v>741</v>
       </c>
       <c r="B286" t="s">
@@ -13066,7 +13064,7 @@
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A287" s="26" t="s">
+      <c r="A287" t="s">
         <v>741</v>
       </c>
       <c r="B287" t="s">
@@ -13099,7 +13097,7 @@
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A288" s="26" t="s">
+      <c r="A288" t="s">
         <v>741</v>
       </c>
       <c r="B288" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A289" s="26" t="s">
+      <c r="A289" t="s">
         <v>741</v>
       </c>
       <c r="B289" t="s">
@@ -13168,7 +13166,7 @@
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A290" s="26" t="s">
+      <c r="A290" t="s">
         <v>741</v>
       </c>
       <c r="B290" t="s">
@@ -13201,7 +13199,7 @@
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A291" s="26" t="s">
+      <c r="A291" t="s">
         <v>741</v>
       </c>
       <c r="B291" t="s">
@@ -13234,7 +13232,7 @@
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A292" s="26" t="s">
+      <c r="A292" t="s">
         <v>741</v>
       </c>
       <c r="B292" t="s">
@@ -13270,7 +13268,7 @@
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A293" s="26" t="s">
+      <c r="A293" t="s">
         <v>741</v>
       </c>
       <c r="B293" t="s">
@@ -13303,7 +13301,7 @@
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A294" s="26" t="s">
+      <c r="A294" t="s">
         <v>741</v>
       </c>
       <c r="B294" t="s">
@@ -13345,7 +13343,7 @@
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A295" s="26" t="s">
+      <c r="A295" t="s">
         <v>741</v>
       </c>
       <c r="B295" t="s">
@@ -13382,7 +13380,7 @@
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A296" s="26" t="s">
+      <c r="A296" t="s">
         <v>741</v>
       </c>
       <c r="B296" t="s">
@@ -13415,7 +13413,7 @@
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A297" s="26" t="s">
+      <c r="A297" t="s">
         <v>741</v>
       </c>
       <c r="B297" t="s">
@@ -13448,7 +13446,7 @@
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A298" s="26" t="s">
+      <c r="A298" t="s">
         <v>741</v>
       </c>
       <c r="B298" t="s">
@@ -13484,7 +13482,7 @@
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A299" s="26" t="s">
+      <c r="A299" t="s">
         <v>741</v>
       </c>
       <c r="B299" t="s">
@@ -13517,7 +13515,7 @@
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A300" s="26" t="s">
+      <c r="A300" t="s">
         <v>741</v>
       </c>
       <c r="B300" t="s">
@@ -13550,7 +13548,7 @@
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A301" s="26" t="s">
+      <c r="A301" t="s">
         <v>741</v>
       </c>
       <c r="B301" t="s">
@@ -13583,7 +13581,7 @@
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A302" s="26" t="s">
+      <c r="A302" t="s">
         <v>741</v>
       </c>
       <c r="B302" t="s">
@@ -13624,7 +13622,7 @@
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A303" s="26" t="s">
+      <c r="A303" t="s">
         <v>741</v>
       </c>
       <c r="B303" t="s">
@@ -13665,7 +13663,7 @@
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A304" s="26" t="s">
+      <c r="A304" t="s">
         <v>741</v>
       </c>
       <c r="B304" t="s">
@@ -13702,7 +13700,7 @@
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A305" s="26" t="s">
+      <c r="A305" t="s">
         <v>741</v>
       </c>
       <c r="B305" t="s">
@@ -13742,7 +13740,7 @@
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A306" s="26" t="s">
+      <c r="A306" t="s">
         <v>741</v>
       </c>
       <c r="B306" t="s">
@@ -13775,7 +13773,7 @@
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A307" s="26" t="s">
+      <c r="A307" t="s">
         <v>741</v>
       </c>
       <c r="B307" t="s">
@@ -13811,7 +13809,7 @@
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A308" s="26" t="s">
+      <c r="A308" t="s">
         <v>741</v>
       </c>
       <c r="B308" t="s">
@@ -13847,7 +13845,7 @@
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A309" s="26" t="s">
+      <c r="A309" t="s">
         <v>741</v>
       </c>
       <c r="B309" t="s">
@@ -13883,7 +13881,7 @@
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A310" s="26" t="s">
+      <c r="A310" t="s">
         <v>741</v>
       </c>
       <c r="B310" t="s">
@@ -13919,7 +13917,7 @@
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A311" s="26" t="s">
+      <c r="A311" t="s">
         <v>741</v>
       </c>
       <c r="B311" t="s">
@@ -13955,7 +13953,7 @@
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A312" s="26" t="s">
+      <c r="A312" t="s">
         <v>741</v>
       </c>
       <c r="B312" t="s">
@@ -13991,7 +13989,7 @@
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A313" s="26" t="s">
+      <c r="A313" t="s">
         <v>741</v>
       </c>
       <c r="B313" t="s">
@@ -14027,7 +14025,7 @@
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A314" s="26" t="s">
+      <c r="A314" t="s">
         <v>741</v>
       </c>
       <c r="B314" t="s">
@@ -14063,7 +14061,7 @@
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A315" s="26" t="s">
+      <c r="A315" t="s">
         <v>741</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -14099,7 +14097,7 @@
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A316" s="26" t="s">
+      <c r="A316" t="s">
         <v>741</v>
       </c>
       <c r="B316" t="s">
@@ -14135,7 +14133,7 @@
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A317" s="26" t="s">
+      <c r="A317" t="s">
         <v>741</v>
       </c>
       <c r="B317" t="s">
@@ -14171,7 +14169,7 @@
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A318" s="26" t="s">
+      <c r="A318" t="s">
         <v>741</v>
       </c>
       <c r="B318" t="s">
@@ -14204,7 +14202,7 @@
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A319" s="26" t="s">
+      <c r="A319" t="s">
         <v>741</v>
       </c>
       <c r="B319" t="s">
@@ -14240,7 +14238,7 @@
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A320" s="26" t="s">
+      <c r="A320" t="s">
         <v>741</v>
       </c>
       <c r="B320" t="s">
@@ -14276,7 +14274,7 @@
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A321" s="26" t="s">
+      <c r="A321" t="s">
         <v>741</v>
       </c>
       <c r="B321" t="s">
@@ -14315,7 +14313,7 @@
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A322" s="26" t="s">
+      <c r="A322" t="s">
         <v>741</v>
       </c>
       <c r="B322" t="s">
@@ -14341,7 +14339,7 @@
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A323" s="26" t="s">
+      <c r="A323" t="s">
         <v>741</v>
       </c>
       <c r="B323" t="s">
@@ -14380,7 +14378,7 @@
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A324" s="26" t="s">
+      <c r="A324" t="s">
         <v>741</v>
       </c>
       <c r="B324" t="s">
@@ -14413,7 +14411,7 @@
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A325" s="26" t="s">
+      <c r="A325" t="s">
         <v>741</v>
       </c>
       <c r="B325" t="s">
@@ -14446,7 +14444,7 @@
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A326" s="26" t="s">
+      <c r="A326" t="s">
         <v>741</v>
       </c>
       <c r="B326" t="s">
@@ -14482,7 +14480,7 @@
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A327" s="26" t="s">
+      <c r="A327" t="s">
         <v>741</v>
       </c>
       <c r="B327" t="s">
@@ -14515,7 +14513,7 @@
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A328" s="26" t="s">
+      <c r="A328" t="s">
         <v>741</v>
       </c>
       <c r="B328" t="s">
@@ -14548,7 +14546,7 @@
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A329" s="26" t="s">
+      <c r="A329" t="s">
         <v>741</v>
       </c>
       <c r="B329" t="s">
@@ -14581,7 +14579,7 @@
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A330" s="26" t="s">
+      <c r="A330" t="s">
         <v>741</v>
       </c>
       <c r="B330" t="s">
@@ -14614,7 +14612,7 @@
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A331" s="26" t="s">
+      <c r="A331" t="s">
         <v>741</v>
       </c>
       <c r="B331" t="s">
@@ -14640,7 +14638,7 @@
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A332" s="26" t="s">
+      <c r="A332" t="s">
         <v>741</v>
       </c>
       <c r="B332" t="s">
@@ -14670,7 +14668,7 @@
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A333" s="26" t="s">
+      <c r="A333" t="s">
         <v>741</v>
       </c>
       <c r="B333" t="s">
@@ -14703,7 +14701,7 @@
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A334" s="26" t="s">
+      <c r="A334" t="s">
         <v>741</v>
       </c>
       <c r="B334" t="s">
@@ -14742,7 +14740,7 @@
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A335" s="26" t="s">
+      <c r="A335" t="s">
         <v>741</v>
       </c>
       <c r="B335" t="s">
@@ -14771,7 +14769,7 @@
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A336" s="26" t="s">
+      <c r="A336" t="s">
         <v>741</v>
       </c>
       <c r="B336" t="s">
@@ -14804,7 +14802,7 @@
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A337" s="26" t="s">
+      <c r="A337" t="s">
         <v>741</v>
       </c>
       <c r="B337" t="s">
@@ -14837,7 +14835,7 @@
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A338" s="26" t="s">
+      <c r="A338" t="s">
         <v>741</v>
       </c>
       <c r="B338" t="s">
@@ -14870,7 +14868,7 @@
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A339" s="26" t="s">
+      <c r="A339" t="s">
         <v>741</v>
       </c>
       <c r="B339" t="s">
@@ -14903,7 +14901,7 @@
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A340" s="26" t="s">
+      <c r="A340" t="s">
         <v>741</v>
       </c>
       <c r="B340" t="s">
@@ -14936,7 +14934,7 @@
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A341" s="26" t="s">
+      <c r="A341" t="s">
         <v>741</v>
       </c>
       <c r="B341" t="s">
@@ -14969,7 +14967,7 @@
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A342" s="26" t="s">
+      <c r="A342" t="s">
         <v>741</v>
       </c>
       <c r="B342" t="s">
@@ -15008,7 +15006,7 @@
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A343" s="26" t="s">
+      <c r="A343" t="s">
         <v>741</v>
       </c>
       <c r="B343" t="s">
@@ -15047,7 +15045,7 @@
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A344" s="26" t="s">
+      <c r="A344" t="s">
         <v>741</v>
       </c>
       <c r="B344" t="s">
@@ -15080,7 +15078,7 @@
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A345" s="26" t="s">
+      <c r="A345" t="s">
         <v>741</v>
       </c>
       <c r="B345" t="s">
@@ -15113,7 +15111,7 @@
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A346" s="26" t="s">
+      <c r="A346" t="s">
         <v>741</v>
       </c>
       <c r="B346" t="s">
@@ -15146,7 +15144,7 @@
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A347" s="26" t="s">
+      <c r="A347" t="s">
         <v>741</v>
       </c>
       <c r="B347" t="s">
@@ -15179,7 +15177,7 @@
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A348" s="26" t="s">
+      <c r="A348" t="s">
         <v>741</v>
       </c>
       <c r="B348" t="s">
@@ -15212,7 +15210,7 @@
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A349" s="26" t="s">
+      <c r="A349" t="s">
         <v>741</v>
       </c>
       <c r="B349" t="s">
@@ -15245,7 +15243,7 @@
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A350" s="26" t="s">
+      <c r="A350" t="s">
         <v>741</v>
       </c>
       <c r="B350" t="s">
@@ -15278,7 +15276,7 @@
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A351" s="26" t="s">
+      <c r="A351" t="s">
         <v>741</v>
       </c>
       <c r="B351" t="s">
@@ -15312,7 +15310,7 @@
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A352" s="26" t="s">
+      <c r="A352" t="s">
         <v>741</v>
       </c>
       <c r="B352" t="s">
@@ -15345,7 +15343,7 @@
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A353" s="26" t="s">
+      <c r="A353" t="s">
         <v>741</v>
       </c>
       <c r="B353" t="s">
@@ -15391,7 +15389,7 @@
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A354" s="26" t="s">
+      <c r="A354" t="s">
         <v>741</v>
       </c>
       <c r="B354" t="s">
@@ -15427,7 +15425,7 @@
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A355" s="26" t="s">
+      <c r="A355" t="s">
         <v>741</v>
       </c>
       <c r="B355" t="s">
@@ -15460,7 +15458,7 @@
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A356" s="26" t="s">
+      <c r="A356" t="s">
         <v>741</v>
       </c>
       <c r="B356" t="s">
@@ -15493,7 +15491,7 @@
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A357" s="26" t="s">
+      <c r="A357" t="s">
         <v>741</v>
       </c>
       <c r="B357" t="s">
@@ -15532,7 +15530,7 @@
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A358" s="26" t="s">
+      <c r="A358" t="s">
         <v>741</v>
       </c>
       <c r="B358" t="s">
@@ -15565,7 +15563,7 @@
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A359" s="26" t="s">
+      <c r="A359" t="s">
         <v>741</v>
       </c>
       <c r="B359" t="s">
@@ -15599,7 +15597,7 @@
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A360" s="26" t="s">
+      <c r="A360" t="s">
         <v>741</v>
       </c>
       <c r="B360" t="s">
@@ -15635,7 +15633,7 @@
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A361" s="26" t="s">
+      <c r="A361" t="s">
         <v>741</v>
       </c>
       <c r="B361" t="s">
@@ -15671,7 +15669,7 @@
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A362" s="26" t="s">
+      <c r="A362" t="s">
         <v>741</v>
       </c>
       <c r="B362" t="s">
@@ -15704,7 +15702,7 @@
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A363" s="26" t="s">
+      <c r="A363" t="s">
         <v>741</v>
       </c>
       <c r="B363" t="s">
@@ -15730,7 +15728,7 @@
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A364" s="26" t="s">
+      <c r="A364" t="s">
         <v>741</v>
       </c>
       <c r="B364" t="s">
@@ -15763,7 +15761,7 @@
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A365" s="26" t="s">
+      <c r="A365" t="s">
         <v>741</v>
       </c>
       <c r="B365" t="s">
@@ -15796,7 +15794,7 @@
       </c>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A366" s="26" t="s">
+      <c r="A366" t="s">
         <v>741</v>
       </c>
       <c r="B366" t="s">
@@ -15837,7 +15835,7 @@
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A367" s="26" t="s">
+      <c r="A367" t="s">
         <v>741</v>
       </c>
       <c r="B367" t="s">
@@ -17972,7 +17970,7 @@
       <c r="E14" t="s">
         <v>617</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" t="s">
         <v>618</v>
       </c>
     </row>
@@ -18809,7 +18807,7 @@
       <c r="D56" t="s">
         <v>602</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" t="s">
         <v>638</v>
       </c>
       <c r="F56" t="s">
